--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/151.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/151.xlsx
@@ -479,13 +479,13 @@
         <v>-0.349491269653979</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.965193843393139</v>
+        <v>-1.947294383822644</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03462161631573284</v>
+        <v>0.04230292932200351</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2948309351573605</v>
+        <v>-0.2939257053409971</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.3260393205824624</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.076668515134018</v>
+        <v>-2.054296198237024</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01083451281864832</v>
+        <v>0.02388734275137209</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2951317050640877</v>
+        <v>-0.2951200246793604</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.3116155232767491</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.208242208894347</v>
+        <v>-2.180192494995854</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04254675735318526</v>
+        <v>0.05260502865145529</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.313134098024992</v>
+        <v>-0.3088298762529931</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.3046125066215504</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.365893821606395</v>
+        <v>-2.324575190657725</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06286624663436162</v>
+        <v>0.07167471676681381</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.339311300246894</v>
+        <v>-0.3385841962976215</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.292555628594435</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.578375350300384</v>
+        <v>-2.524585718583216</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1043505930413505</v>
+        <v>0.1047229053045322</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3224506648930804</v>
+        <v>-0.3193393024113539</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2674622557425494</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.515886022033537</v>
+        <v>-2.456661361297962</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2312097915161346</v>
+        <v>0.2327092609054978</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3834062126404276</v>
+        <v>-0.3824469610447006</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2266646931470689</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.387395219817162</v>
+        <v>-2.320829437280498</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3243929807741096</v>
+        <v>0.3254690362171093</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.407564168352603</v>
+        <v>-0.4042776000999675</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1716271538722115</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.113052183535418</v>
+        <v>-2.043929126767527</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4447345245710773</v>
+        <v>0.4446892630802591</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3634239944682512</v>
+        <v>-0.3516676872402543</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.102254723938262</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.758499945331513</v>
+        <v>-1.690781454827077</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5313752383336904</v>
+        <v>0.5243991285553286</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.280685989252637</v>
+        <v>-0.2671834645079134</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.02011768007541917</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.194740336277482</v>
+        <v>-1.131292486438954</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5135334506627861</v>
+        <v>0.5052710385163337</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2309552912281958</v>
+        <v>-0.2172819408568359</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.07575809054847819</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.6233548960446359</v>
+        <v>-0.5594704918269258</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4171147948353574</v>
+        <v>0.4092830968757232</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1307040091621318</v>
+        <v>-0.1168028912885901</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.185381887058796</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.0680562656774214</v>
+        <v>0.005114044398468041</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2797928917411215</v>
+        <v>0.2717962083472146</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.006436396048710676</v>
+        <v>0.00862838015328528</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3088434204034128</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5274287283439641</v>
+        <v>0.6046521319202162</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0096631023296189</v>
+        <v>-0.01156262489589112</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1341005329417061</v>
+        <v>0.1507363208895199</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.4457605517030515</v>
       </c>
       <c r="E15" t="n">
-        <v>1.070860087828273</v>
+        <v>1.142560129476617</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2330884214890135</v>
+        <v>-0.2324153393191045</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2853775756888473</v>
+        <v>0.3047772346727512</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.5905407098286427</v>
       </c>
       <c r="E16" t="n">
-        <v>1.625490016169851</v>
+        <v>1.693880128796105</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6259348010212716</v>
+        <v>-0.6162649025151833</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4488766810049852</v>
+        <v>0.4617411647339818</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.7365607892582956</v>
       </c>
       <c r="E17" t="n">
-        <v>2.232960544969506</v>
+        <v>2.299201466805943</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8370154135720331</v>
+        <v>-0.8329652401678523</v>
       </c>
       <c r="G17" t="n">
-        <v>0.588839811095675</v>
+        <v>0.5966525284301274</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.8796724611425405</v>
       </c>
       <c r="E18" t="n">
-        <v>2.706521303063379</v>
+        <v>2.778767402697723</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.153476457132221</v>
+        <v>-1.13901468079177</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7457774602912691</v>
+        <v>0.7590419971971747</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.020305832692615</v>
       </c>
       <c r="E19" t="n">
-        <v>3.137133286515081</v>
+        <v>3.214568397064515</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.448251406398142</v>
+        <v>-1.428263348033602</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9287828081019472</v>
+        <v>0.9401872437400352</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.156801158784233</v>
       </c>
       <c r="E20" t="n">
-        <v>3.452497833958997</v>
+        <v>3.528814547670795</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.719037765530433</v>
+        <v>-1.7039145874048</v>
       </c>
       <c r="G20" t="n">
-        <v>1.109570342862535</v>
+        <v>1.122599812025804</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.285787458001719</v>
       </c>
       <c r="E21" t="n">
-        <v>3.819232713433444</v>
+        <v>3.897596414568695</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.985829433085997</v>
+        <v>-1.971107768185365</v>
       </c>
       <c r="G21" t="n">
-        <v>1.238507189770682</v>
+        <v>1.253696070060405</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.399557060391076</v>
       </c>
       <c r="E22" t="n">
-        <v>4.169758139002623</v>
+        <v>4.252649449267782</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.270300822974376</v>
+        <v>-2.248310308653154</v>
       </c>
       <c r="G22" t="n">
-        <v>1.391701275661187</v>
+        <v>1.408201279136546</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.494194062001083</v>
       </c>
       <c r="E23" t="n">
-        <v>4.277973983404594</v>
+        <v>4.368118812585387</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.569749386179295</v>
+        <v>-2.543775130642029</v>
       </c>
       <c r="G23" t="n">
-        <v>1.53340624312433</v>
+        <v>1.545239932901145</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.567636910056666</v>
       </c>
       <c r="E24" t="n">
-        <v>4.47657702497045</v>
+        <v>4.565111421106971</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.894516643328663</v>
+        <v>-2.86338987807858</v>
       </c>
       <c r="G24" t="n">
-        <v>1.614709021066581</v>
+        <v>1.624935197895306</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.619218447393628</v>
       </c>
       <c r="E25" t="n">
-        <v>4.499682286009079</v>
+        <v>4.588529132437055</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.124472757598692</v>
+        <v>-3.08887313502211</v>
       </c>
       <c r="G25" t="n">
-        <v>1.701019763960649</v>
+        <v>1.713888627833918</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.648567026277905</v>
       </c>
       <c r="E26" t="n">
-        <v>4.546587790977612</v>
+        <v>4.642606393628132</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.270777606572243</v>
+        <v>-3.230515320417345</v>
       </c>
       <c r="G26" t="n">
-        <v>1.822884137916434</v>
+        <v>1.835247825150249</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.65637139175039</v>
       </c>
       <c r="E27" t="n">
-        <v>4.544523282977067</v>
+        <v>4.634510426964043</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.413112584786614</v>
+        <v>-3.367126910115354</v>
       </c>
       <c r="G27" t="n">
-        <v>1.866574616988786</v>
+        <v>1.883058559935146</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.645045277192067</v>
       </c>
       <c r="E28" t="n">
-        <v>4.49912016749408</v>
+        <v>4.584042404653693</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.491572649095866</v>
+        <v>-3.438578743588244</v>
       </c>
       <c r="G28" t="n">
-        <v>1.853429804026335</v>
+        <v>1.865200711735241</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.616086317288102</v>
       </c>
       <c r="E29" t="n">
-        <v>4.404057896343105</v>
+        <v>4.485651223855447</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.542926190573352</v>
+        <v>-3.497163903260001</v>
       </c>
       <c r="G29" t="n">
-        <v>1.892075816944598</v>
+        <v>1.90448330562114</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.57379956123676</v>
       </c>
       <c r="E30" t="n">
-        <v>4.362214378105753</v>
+        <v>4.435824162657005</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.654673891307231</v>
+        <v>-3.608242171944198</v>
       </c>
       <c r="G30" t="n">
-        <v>1.91523217966641</v>
+        <v>1.931126263184042</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.519446093163773</v>
       </c>
       <c r="E31" t="n">
-        <v>4.188284689228163</v>
+        <v>4.245397390400239</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.597483077562292</v>
+        <v>-3.556576910199303</v>
       </c>
       <c r="G31" t="n">
-        <v>1.905699525680867</v>
+        <v>1.914985431539046</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.457513349176968</v>
       </c>
       <c r="E32" t="n">
-        <v>4.082520265570828</v>
+        <v>4.12844461822227</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.520032636507904</v>
+        <v>-3.481795437055096</v>
       </c>
       <c r="G32" t="n">
-        <v>1.813206939169892</v>
+        <v>1.825481563470161</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.389563304176738</v>
       </c>
       <c r="E33" t="n">
-        <v>3.870502302145703</v>
+        <v>3.901906476533058</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.527673798191674</v>
+        <v>-3.487226085929231</v>
       </c>
       <c r="G33" t="n">
-        <v>1.777819753590538</v>
+        <v>1.78645155790399</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.318841709451394</v>
       </c>
       <c r="E34" t="n">
-        <v>3.710844583356746</v>
+        <v>3.73447108156383</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.487813025261776</v>
+        <v>-3.448480789740787</v>
       </c>
       <c r="G34" t="n">
-        <v>1.680107495154564</v>
+        <v>1.688602054947471</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.247174017791673</v>
       </c>
       <c r="E35" t="n">
-        <v>3.617589851742316</v>
+        <v>3.637023091832311</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.395987680728346</v>
+        <v>-3.359528819850265</v>
       </c>
       <c r="G35" t="n">
-        <v>1.617578015565217</v>
+        <v>1.623772999614943</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.176300474998405</v>
       </c>
       <c r="E36" t="n">
-        <v>3.416376244189915</v>
+        <v>3.430801519328094</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.302912535029098</v>
+        <v>-3.279838665024422</v>
       </c>
       <c r="G36" t="n">
-        <v>1.52056804026097</v>
+        <v>1.527458007201968</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.108072787827782</v>
       </c>
       <c r="E37" t="n">
-        <v>3.248967130086324</v>
+        <v>3.256701004823868</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.222980012220165</v>
+        <v>-3.200680697727717</v>
       </c>
       <c r="G37" t="n">
-        <v>1.398538680870912</v>
+        <v>1.402444309514093</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.043588505690571</v>
       </c>
       <c r="E38" t="n">
-        <v>3.122870076714995</v>
+        <v>3.135506792941809</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.100579070590971</v>
+        <v>-3.081525443004612</v>
       </c>
       <c r="G38" t="n">
-        <v>1.336003361089201</v>
+        <v>1.344572383334745</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.9844141621084104</v>
       </c>
       <c r="E39" t="n">
-        <v>2.811479780174533</v>
+        <v>2.809057560391715</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.96690509765187</v>
+        <v>-2.948528932379693</v>
       </c>
       <c r="G39" t="n">
-        <v>1.206495635377509</v>
+        <v>1.212162082018326</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.9292851794044948</v>
       </c>
       <c r="E40" t="n">
-        <v>2.561455304894964</v>
+        <v>2.556069187487601</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.859585722777717</v>
+        <v>-2.843623747023858</v>
       </c>
       <c r="G40" t="n">
-        <v>1.18300638169097</v>
+        <v>1.188091729191605</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.8781619579811071</v>
       </c>
       <c r="E41" t="n">
-        <v>2.381784706923921</v>
+        <v>2.381935091877284</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.771209741859059</v>
+        <v>-2.758781812509244</v>
       </c>
       <c r="G41" t="n">
-        <v>1.060211957101276</v>
+        <v>1.067151565677365</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.8279848470400577</v>
       </c>
       <c r="E42" t="n">
-        <v>2.150651793892619</v>
+        <v>2.153386463966891</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.663604197559088</v>
+        <v>-2.66036946101368</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9692903823361182</v>
+        <v>0.9730003645351173</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.7779305016434163</v>
       </c>
       <c r="E43" t="n">
-        <v>2.035519701684014</v>
+        <v>2.037899580072195</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.590048434787199</v>
+        <v>-2.585647119817155</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8628207554508741</v>
+        <v>0.8677454976615091</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.7251894021166935</v>
       </c>
       <c r="E44" t="n">
-        <v>1.826915330695433</v>
+        <v>1.831545143191705</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.581970718724246</v>
+        <v>-2.573722907058703</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7875406758836215</v>
+        <v>0.7931750014664383</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.668478452457968</v>
       </c>
       <c r="E45" t="n">
-        <v>1.584681672028953</v>
+        <v>1.594240606880132</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.471691096345776</v>
+        <v>-2.465320906525141</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6826303803594679</v>
+        <v>0.6909979159684657</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.6067998585731924</v>
       </c>
       <c r="E46" t="n">
-        <v>1.386791133931461</v>
+        <v>1.39949939251473</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.43086961177206</v>
+        <v>-2.420195930203472</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6590871048935651</v>
+        <v>0.6682021851251082</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.5409875239750205</v>
       </c>
       <c r="E47" t="n">
-        <v>1.107594897795536</v>
+        <v>1.118472256072806</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.365721535931668</v>
+        <v>-2.358497217977852</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5516699067973213</v>
+        <v>0.5574210362274107</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.4727395431939878</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9476729103021241</v>
+        <v>0.962194548614302</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.312883125545728</v>
+        <v>-2.306997671691275</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4647182027913446</v>
+        <v>0.4698882330812523</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.403937066066577</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7232970998355479</v>
+        <v>0.7381165879582712</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.253502969688471</v>
+        <v>-2.2457333237727</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3924414421470913</v>
+        <v>0.3951439911633633</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.3375229949677048</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5930374493570374</v>
+        <v>0.6157382770744859</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.202496919656621</v>
+        <v>-2.196404868997305</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3165539825740208</v>
+        <v>0.3214159427167467</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.27407139601028</v>
       </c>
       <c r="E51" t="n">
-        <v>0.416466533482994</v>
+        <v>0.4520128643042571</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.161430877027677</v>
+        <v>-2.148770800031408</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2619058425793991</v>
+        <v>0.2638272658670349</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2147516230843219</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2920499954643001</v>
+        <v>0.334716980824925</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.08402204734388</v>
+        <v>-2.071339339602202</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2240789166401365</v>
+        <v>0.2321807234965889</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1589449468148336</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1572218545093363</v>
+        <v>0.2007458880993246</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.031320881478485</v>
+        <v>-2.021286700973715</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1301014612207072</v>
+        <v>0.1343414408767061</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1065715162058565</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1122698938864393</v>
+        <v>0.1631058483156984</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.981647855353635</v>
+        <v>-1.97277076296091</v>
       </c>
       <c r="G54" t="n">
-        <v>0.06260197792990715</v>
+        <v>0.07278727341208624</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.05625828232263575</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.08308162058096283</v>
+        <v>-0.0254579025770692</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.968584805084275</v>
+        <v>-1.960902762053959</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01798290827173731</v>
+        <v>0.03015240910946132</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.007224348656679635</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.2034231643779305</v>
+        <v>-0.144981819443128</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.853123472031169</v>
+        <v>-1.851418135860988</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.01183273379270923</v>
+        <v>0.003928485348650178</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.04111718762933733</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.3605287191039792</v>
+        <v>-0.3009777376200861</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.777138919260053</v>
+        <v>-1.770827131363055</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.0615269306148777</v>
+        <v>-0.04784335990688138</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.08883229777876782</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.4062778659845124</v>
+        <v>-0.3393828426033486</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.766321422954511</v>
+        <v>-1.758666390813876</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1428676698074922</v>
+        <v>-0.1319450500394042</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1357057700879821</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.6468733506929932</v>
+        <v>-0.5746126505777399</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.719846632172796</v>
+        <v>-1.715035773713252</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1650297397793954</v>
+        <v>-0.1524601857647624</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1816453893805745</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.6712605339554413</v>
+        <v>-0.5963469264590068</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.644283303275907</v>
+        <v>-1.643437935431271</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2029428085560215</v>
+        <v>-0.1950103672781146</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2260766275111328</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.8274783794422175</v>
+        <v>-0.7377584242558779</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.652504834075814</v>
+        <v>-1.650076774100633</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2510119718530087</v>
+        <v>-0.2399156063621025</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2692415541767864</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.9995027055611713</v>
+        <v>-0.907124002801287</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.590119899247467</v>
+        <v>-1.587907926389741</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3047461217427215</v>
+        <v>-0.2959405717064511</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3108330048027019</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.08109165292924</v>
+        <v>-0.9831603872796302</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.625564026702367</v>
+        <v>-1.622611809462549</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3630049606661604</v>
+        <v>-0.3550141174646171</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3510760603272477</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.289612801176639</v>
+        <v>-1.18549823186203</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.591852976331376</v>
+        <v>-1.58890367918774</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.410969000500602</v>
+        <v>-0.3977234442198783</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3892749558352335</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.466100494309501</v>
+        <v>-1.358235061449348</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.533078740431846</v>
+        <v>-1.534624931360119</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.4658828692477691</v>
+        <v>-0.4557588957854082</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4250240994177116</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.596885762100738</v>
+        <v>-1.484048865491041</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.563158651200747</v>
+        <v>-1.568333061634928</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.4706878875149497</v>
+        <v>-0.4551412954429538</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4568322864366087</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.7402581044837</v>
+        <v>-1.62447629087464</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.526219434500757</v>
+        <v>-1.53340579120421</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.5227444421482084</v>
+        <v>-0.5059057075157584</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4837222063414283</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.893689448188977</v>
+        <v>-1.7742889053866</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.546536003685752</v>
+        <v>-1.56547720756911</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.5343897857212961</v>
+        <v>-0.5171874991142099</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.5046139965771412</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.996906087927676</v>
+        <v>-1.873729130738164</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.558260189855748</v>
+        <v>-1.581133303247924</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.5431894955652029</v>
+        <v>-0.5229649094099356</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.5187733670405137</v>
       </c>
       <c r="E70" t="n">
-        <v>-2.128345457263641</v>
+        <v>-1.999544394827948</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.561936590948657</v>
+        <v>-1.589278911547104</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.6265407209789987</v>
+        <v>-0.6046443797596409</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.5260634679046243</v>
       </c>
       <c r="E71" t="n">
-        <v>-2.206217852216302</v>
+        <v>-2.076577992152382</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.570828283822291</v>
+        <v>-1.602290860133282</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.6746128043721676</v>
+        <v>-0.6466543434793569</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.5264281274296441</v>
       </c>
       <c r="E72" t="n">
-        <v>-2.289682231357143</v>
+        <v>-2.16251131261495</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.572136486911745</v>
+        <v>-1.600665826608101</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6732053180125316</v>
+        <v>-0.6542947751390822</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.519929818208919</v>
       </c>
       <c r="E73" t="n">
-        <v>-2.274280914070193</v>
+        <v>-2.147738546031136</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.566948936044746</v>
+        <v>-1.590749179974649</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7278417776224261</v>
+        <v>-0.7049847247592503</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.5067882610097655</v>
       </c>
       <c r="E74" t="n">
-        <v>-2.315665977207</v>
+        <v>-2.191265499717306</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.551162896085841</v>
+        <v>-1.57916661846947</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7235025146962454</v>
+        <v>-0.7038634078254324</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.4872465638694827</v>
       </c>
       <c r="E75" t="n">
-        <v>-2.212748647326936</v>
+        <v>-2.088530675848606</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.500570769687764</v>
+        <v>-1.531611392100483</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.744026410710149</v>
+        <v>-0.725587463370063</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.4614179853837792</v>
       </c>
       <c r="E76" t="n">
-        <v>-2.18495006170008</v>
+        <v>-2.066941674752385</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.380740242722614</v>
+        <v>-1.416363956092696</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7465406135226937</v>
+        <v>-0.7271351143464262</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4301760037039367</v>
       </c>
       <c r="E77" t="n">
-        <v>-2.029712638506349</v>
+        <v>-1.917013716441243</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.394568358191611</v>
+        <v>-1.430040226560237</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7074273852153407</v>
+        <v>-0.6877050556033459</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3942660614816762</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.874981852000164</v>
+        <v>-1.76797565744151</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.35576466007953</v>
+        <v>-1.393765331741611</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.7178871697386106</v>
+        <v>-0.6971325861263434</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3544126943892948</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.697120983637802</v>
+        <v>-1.60096951661101</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.294190051941638</v>
+        <v>-1.340721784598898</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6873896852157096</v>
+        <v>-0.6691799654258963</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3111660500851559</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.500307961031401</v>
+        <v>-1.403496552267517</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.28418434237464</v>
+        <v>-1.328299695441447</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6179760788777283</v>
+        <v>-0.6002802960159148</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2663395940621452</v>
       </c>
       <c r="E81" t="n">
-        <v>-1.333557328616809</v>
+        <v>-1.244526516129378</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.173454295160125</v>
+        <v>-1.215150348540295</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5608239564071982</v>
+        <v>-0.5427690017150212</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2206989034257272</v>
       </c>
       <c r="E82" t="n">
-        <v>-1.114820223877322</v>
+        <v>-1.026097481537073</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.147618744191495</v>
+        <v>-1.184728786518122</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.5199776510159364</v>
+        <v>-0.5029155290255773</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1745790540125014</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.8391821249389416</v>
+        <v>-0.7560893280372366</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.059590984742519</v>
+        <v>-1.099418176566326</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4905912630902171</v>
+        <v>-0.4732371314816762</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1282267215018989</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.5182781550381187</v>
+        <v>-0.4455882007841382</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.9900547343649011</v>
+        <v>-1.036603987599252</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.4335603246112323</v>
+        <v>-0.4180662942705092</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.08273012004037752</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.2804611418466371</v>
+        <v>-0.2176513330238358</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.9335815342566436</v>
+        <v>-0.976896780969632</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3870242118096994</v>
+        <v>-0.3805970801135193</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.03917222253438001</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.004623016319802072</v>
+        <v>0.0505098596410013</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.8754964410560228</v>
+        <v>-0.9239554371932824</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2999352632831773</v>
+        <v>-0.2889659219761803</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.002287084026566008</v>
       </c>
       <c r="E87" t="n">
-        <v>0.2515526415667655</v>
+        <v>0.3024528381120246</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.7746596797055044</v>
+        <v>-0.8208351606285829</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.233286988029377</v>
+        <v>-0.2241806680863795</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.0402055399077196</v>
       </c>
       <c r="E88" t="n">
-        <v>0.4584151751828918</v>
+        <v>0.5089196986955146</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6517469912204464</v>
+        <v>-0.688071527674164</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.2015411623887492</v>
+        <v>-0.1927385324486607</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.0738679665033472</v>
       </c>
       <c r="E89" t="n">
-        <v>0.7434574438748153</v>
+        <v>0.7909615685606206</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.4981645325377604</v>
+        <v>-0.5334480547026601</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1247937344901334</v>
+        <v>-0.115414385554136</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1019972240829344</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9936235438192026</v>
+        <v>1.040714474895281</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.3635305779788875</v>
+        <v>-0.3963393186296969</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.06964041785605735</v>
+        <v>-0.06204086754287756</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1237006645954398</v>
       </c>
       <c r="E91" t="n">
-        <v>1.174380417569881</v>
+        <v>1.218970286266233</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.1835343892835722</v>
+        <v>-0.2174994880223813</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.04027447060361068</v>
+        <v>-0.03649732619242987</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.139844514957557</v>
       </c>
       <c r="E92" t="n">
-        <v>1.305773065366937</v>
+        <v>1.340087115599473</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.03454378184679404</v>
+        <v>-0.06984774468496638</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.04086871017661052</v>
+        <v>-0.03776318788724772</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1525689329167063</v>
       </c>
       <c r="E93" t="n">
-        <v>1.416776141574453</v>
+        <v>1.4448251254489</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1239181575557089</v>
+        <v>0.09687222671971613</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.04056794026988333</v>
+        <v>-0.03715726792952061</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1629305184699354</v>
       </c>
       <c r="E94" t="n">
-        <v>1.438094303749811</v>
+        <v>1.449977635161716</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2586981169236727</v>
+        <v>0.2347956696274064</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.06520333170778581</v>
+        <v>-0.05810019774551498</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1712177797593783</v>
       </c>
       <c r="E95" t="n">
-        <v>1.484802702226071</v>
+        <v>1.49132473704816</v>
       </c>
       <c r="F95" t="n">
-        <v>0.4182813732599935</v>
+        <v>0.40073013515918</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.0851928501204168</v>
+        <v>-0.08123027960169059</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.1771228205967847</v>
       </c>
       <c r="E96" t="n">
-        <v>1.435095364971084</v>
+        <v>1.430449491945813</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4586955044163463</v>
+        <v>0.4435854667235321</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1226109625942249</v>
+        <v>-0.1180410120696807</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.1805034610169358</v>
       </c>
       <c r="E97" t="n">
-        <v>1.363002570386285</v>
+        <v>1.359600658334468</v>
       </c>
       <c r="F97" t="n">
-        <v>0.5325593373354173</v>
+        <v>0.5216600783367839</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1598801501627604</v>
+        <v>-0.1537537883733075</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.1788339002257451</v>
       </c>
       <c r="E98" t="n">
-        <v>1.271149484939128</v>
+        <v>1.267737352550675</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5566793317972291</v>
+        <v>0.5464823559303227</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1961521248852052</v>
+        <v>-0.1934422756284787</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.1733152993436048</v>
       </c>
       <c r="E99" t="n">
-        <v>1.217640182455415</v>
+        <v>1.205387458876509</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5756395163057694</v>
+        <v>0.570863699000407</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.2141676582789276</v>
+        <v>-0.216703761812836</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.1608994927378941</v>
       </c>
       <c r="E100" t="n">
-        <v>1.114032249828352</v>
+        <v>1.108755636027808</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5466604817974136</v>
+        <v>0.5447302982212322</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.2306837222832868</v>
+        <v>-0.2329935183631044</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.1436880789659382</v>
       </c>
       <c r="E101" t="n">
-        <v>1.030326232728465</v>
+        <v>1.020511789461377</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5302261804861452</v>
+        <v>0.5301035364465089</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.2220329373446528</v>
+        <v>-0.2246216026098339</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.1128612733809304</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9597256072925754</v>
+        <v>0.9526852553982136</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4746669704827965</v>
+        <v>0.4703160271718886</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2500205991992817</v>
+        <v>-0.2515113083000994</v>
       </c>
     </row>
   </sheetData>
